--- a/xlsx/nsk.xlsx
+++ b/xlsx/nsk.xlsx
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2276793</v>
+        <v>2281793</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3626861</v>
+        <v>3712917</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3626861</v>
+        <v>3712917</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3041265</v>
+        <v>2923017</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2048696</v>
+        <v>2049715</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1981120</v>
+        <v>1946000</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -4480,7 +4480,7 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2130000</v>
+        <v>2176424</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>4209939</v>
+        <v>4150000</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3687315</v>
+        <v>3698232</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         </is>
       </c>
       <c r="H205" t="n">
-        <v>781440</v>
+        <v>768401</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         </is>
       </c>
       <c r="H207" t="n">
-        <v>683100</v>
+        <v>671700</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
@@ -12467,7 +12467,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>638040</v>
+        <v>627391</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         </is>
       </c>
       <c r="H208" t="n">
-        <v>638040</v>
+        <v>627391</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
@@ -12516,7 +12516,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>466200</v>
+        <v>458415</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         </is>
       </c>
       <c r="H209" t="n">
-        <v>466200</v>
+        <v>458415</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         </is>
       </c>
       <c r="H211" t="n">
-        <v>624300</v>
+        <v>613880</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>419040</v>
+        <v>412041</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         </is>
       </c>
       <c r="H213" t="n">
-        <v>419040</v>
+        <v>412041</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>620040</v>
+        <v>609691</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         </is>
       </c>
       <c r="H214" t="n">
-        <v>620040</v>
+        <v>609691</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
@@ -12867,7 +12867,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>867900</v>
+        <v>853420</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         </is>
       </c>
       <c r="H216" t="n">
-        <v>867900</v>
+        <v>853420</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>867900</v>
+        <v>853420</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         </is>
       </c>
       <c r="H217" t="n">
-        <v>867900</v>
+        <v>853420</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>779700</v>
+        <v>766690</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         </is>
       </c>
       <c r="H218" t="n">
-        <v>779700</v>
+        <v>766690</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>803700</v>
+        <v>790290</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         </is>
       </c>
       <c r="H219" t="n">
-        <v>803700</v>
+        <v>790290</v>
       </c>
       <c r="I219" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         </is>
       </c>
       <c r="H220" t="n">
-        <v>430680</v>
+        <v>423487</v>
       </c>
       <c r="I220" t="inlineStr">
         <is>
@@ -13185,7 +13185,7 @@
         </is>
       </c>
       <c r="H222" t="n">
-        <v>995100</v>
+        <v>978500</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
@@ -13234,7 +13234,7 @@
         </is>
       </c>
       <c r="H223" t="n">
-        <v>1211100</v>
+        <v>1190900</v>
       </c>
       <c r="I223" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>574740</v>
+        <v>565146</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         </is>
       </c>
       <c r="H229" t="n">
-        <v>574740</v>
+        <v>565146</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         </is>
       </c>
       <c r="H230" t="n">
-        <v>587700</v>
+        <v>577890</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="H231" t="n">
-        <v>550440</v>
+        <v>541251</v>
       </c>
       <c r="I231" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>641820</v>
+        <v>631108</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -13819,7 +13819,7 @@
         </is>
       </c>
       <c r="H232" t="n">
-        <v>641820</v>
+        <v>631108</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         </is>
       </c>
       <c r="H233" t="n">
-        <v>787500</v>
+        <v>774360</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
@@ -13949,7 +13949,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>516960</v>
+        <v>508329</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         </is>
       </c>
       <c r="H234" t="n">
-        <v>516960</v>
+        <v>508329</v>
       </c>
       <c r="I234" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>550500</v>
+        <v>541310</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         </is>
       </c>
       <c r="H235" t="n">
-        <v>550500</v>
+        <v>541310</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         </is>
       </c>
       <c r="H236" t="n">
-        <v>1054500</v>
+        <v>1036910</v>
       </c>
       <c r="I236" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         </is>
       </c>
       <c r="H238" t="n">
-        <v>992100</v>
+        <v>975550</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="H239" t="n">
-        <v>1126500</v>
+        <v>1107710</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
@@ -14509,7 +14509,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1409640</v>
+        <v>1386131</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         </is>
       </c>
       <c r="H242" t="n">
-        <v>1409640</v>
+        <v>1386131</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         </is>
       </c>
       <c r="H243" t="n">
-        <v>743040</v>
+        <v>730641</v>
       </c>
       <c r="I243" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         </is>
       </c>
       <c r="H244" t="n">
-        <v>789240</v>
+        <v>776071</v>
       </c>
       <c r="I244" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1304640</v>
+        <v>1282881</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         </is>
       </c>
       <c r="H247" t="n">
-        <v>1304640</v>
+        <v>1282881</v>
       </c>
       <c r="I247" t="inlineStr">
         <is>
@@ -14931,7 +14931,7 @@
         </is>
       </c>
       <c r="H248" t="n">
-        <v>663240</v>
+        <v>652171</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
@@ -15020,7 +15020,7 @@
         </is>
       </c>
       <c r="H249" t="n">
-        <v>749040</v>
+        <v>736541</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>9690000</v>
+        <v>15338000</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="T338" t="n">
-        <v>9690000</v>
+        <v>15338000</v>
       </c>
       <c r="U338" t="inlineStr">
         <is>
@@ -19894,7 +19894,7 @@
         </is>
       </c>
       <c r="T339" t="n">
-        <v>4780000</v>
+        <v>4880000</v>
       </c>
       <c r="U339" t="inlineStr">
         <is>

--- a/xlsx/nsk.xlsx
+++ b/xlsx/nsk.xlsx
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2587900</v>
+        <v>2119000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>2587900</v>
+        <v>2119000</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>2587900</v>
+        <v>2119000</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3325000</v>
+        <v>3374814</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>5548000</v>
+        <v>5970540</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         </is>
       </c>
       <c r="T328" t="n">
-        <v>5548000</v>
+        <v>5970540</v>
       </c>
       <c r="U328" t="inlineStr">
         <is>

--- a/xlsx/nsk.xlsx
+++ b/xlsx/nsk.xlsx
@@ -7151,11 +7151,11 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1699000</v>
+        <v>1709400</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://sib-autosalon.ru/cars/haval/new_f7/</t>
+          <t>https://centorauto-nsk.ru/avto-new/haval/haval_f7_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -7167,11 +7167,11 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1699000</v>
+        <v>1979000</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>https://sib-autosalon.ru/cars/haval/new_f7/</t>
+          <t>https://sib-autosalon.ru/cars/haval/f7_ii/</t>
         </is>
       </c>
       <c r="N116" t="n">

--- a/xlsx/nsk.xlsx
+++ b/xlsx/nsk.xlsx
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2923017</v>
+        <v>3059900</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Vesta SW Sportline New</t>
+          <t>Vesta SW Sportline</t>
         </is>
       </c>
       <c r="D242" t="n">

--- a/xlsx/nsk.xlsx
+++ b/xlsx/nsk.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y359"/>
+  <dimension ref="A1:W359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,12 +459,12 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>carproms-nsk.ru_price</t>
+          <t>kia-novo.ru_price</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>carproms-nsk.ru</t>
+          <t>kia-novo.ru</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -535,16 +535,6 @@
       <c r="W1" t="inlineStr">
         <is>
           <t>centorauto-nsk.ru</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>kia-novo.ru_price</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>kia-novo.ru</t>
         </is>
       </c>
     </row>
@@ -4480,7 +4470,7 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2176424</v>
+        <v>2240104</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
@@ -10540,6 +10530,14 @@
           <t>https://astella-cars.ru/new/kia/carnival</t>
         </is>
       </c>
+      <c r="H178" t="n">
+        <v>2530000</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>https://kia-novo.ru/auto/kia/carnival/cuv</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>2249900</v>
       </c>
@@ -10580,14 +10578,6 @@
           <t>https://centorauto-nsk.ru/avto-new/kia/%D1%81arnival/</t>
         </is>
       </c>
-      <c r="X178" t="n">
-        <v>2530000</v>
-      </c>
-      <c r="Y178" t="inlineStr">
-        <is>
-          <t>https://kia-novo.ru/auto/kia/carnival/cuv</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10621,6 +10611,14 @@
           <t>https://astella-cars.ru/new/kia/ceed</t>
         </is>
       </c>
+      <c r="H179" t="n">
+        <v>932300</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>https://kia-novo.ru/auto/kia/ceed/hatchback</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>713000</v>
       </c>
@@ -10661,14 +10659,6 @@
           <t>https://centorauto-nsk.ru/avto-new/kia/ceed_new/</t>
         </is>
       </c>
-      <c r="X179" t="n">
-        <v>932300</v>
-      </c>
-      <c r="Y179" t="inlineStr">
-        <is>
-          <t>https://kia-novo.ru/auto/kia/ceed/hatchback</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10702,6 +10692,14 @@
           <t>https://astella-cars.ru/new/kia/ceed-sw</t>
         </is>
       </c>
+      <c r="H180" t="n">
+        <v>867300</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>https://kia-novo.ru/auto/kia/new-ceedsw/ceedswnew</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>723000</v>
       </c>
@@ -10742,14 +10740,6 @@
           <t>https://centorauto-nsk.ru/avto-new/kia/ceedsw__new/</t>
         </is>
       </c>
-      <c r="X180" t="n">
-        <v>867300</v>
-      </c>
-      <c r="Y180" t="inlineStr">
-        <is>
-          <t>https://kia-novo.ru/auto/kia/new-ceedsw/ceedswnew</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10783,6 +10773,14 @@
           <t>https://astella-cars.ru/new/kia/cerato</t>
         </is>
       </c>
+      <c r="H181" t="n">
+        <v>1734900</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>https://kia-novo.ru/auto/kia/new-cerato/newceratosedan</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>850000</v>
       </c>
@@ -10823,14 +10821,6 @@
           <t>https://centorauto-nsk.ru/avto-new/kia/new_cerato/</t>
         </is>
       </c>
-      <c r="X181" t="n">
-        <v>1734900</v>
-      </c>
-      <c r="Y181" t="inlineStr">
-        <is>
-          <t>https://kia-novo.ru/auto/kia/new-cerato/newceratosedan</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10897,6 +10887,14 @@
           <t>https://astella-cars.ru/new/kia/k5</t>
         </is>
       </c>
+      <c r="H183" t="n">
+        <v>1398000</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>https://kia-novo.ru/auto/kia/k5/sedan</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1149000</v>
       </c>
@@ -10929,14 +10927,6 @@
           <t>https://nsk-drive.ru/cars/kia/k5/</t>
         </is>
       </c>
-      <c r="X183" t="n">
-        <v>1398000</v>
-      </c>
-      <c r="Y183" t="inlineStr">
-        <is>
-          <t>https://kia-novo.ru/auto/kia/k5/sedan</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -11036,6 +11026,14 @@
           <t>https://astella-cars.ru/new/kia/mohave</t>
         </is>
       </c>
+      <c r="H186" t="n">
+        <v>3772000</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>https://kia-novo.ru/auto/kia/mohave-new/suv</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>3844900</v>
       </c>
@@ -11068,14 +11066,6 @@
           <t>https://nsk-drive.ru/cars/kia/mohave/</t>
         </is>
       </c>
-      <c r="X186" t="n">
-        <v>3772000</v>
-      </c>
-      <c r="Y186" t="inlineStr">
-        <is>
-          <t>https://kia-novo.ru/auto/kia/mohave-new/suv</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -11109,6 +11099,14 @@
           <t>https://astella-cars.ru/new/kia/picanto</t>
         </is>
       </c>
+      <c r="H187" t="n">
+        <v>566900</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>https://kia-novo.ru/auto/kia/picanto-new/hatch</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>680000</v>
       </c>
@@ -11149,14 +11147,6 @@
           <t>https://centorauto-nsk.ru/avto-new/kia/picanto_5d/</t>
         </is>
       </c>
-      <c r="X187" t="n">
-        <v>566900</v>
-      </c>
-      <c r="Y187" t="inlineStr">
-        <is>
-          <t>https://kia-novo.ru/auto/kia/picanto-new/hatch</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -11223,6 +11213,14 @@
           <t>https://astella-cars.ru/new/kia/rio</t>
         </is>
       </c>
+      <c r="H189" t="n">
+        <v>712000</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>https://kia-novo.ru/auto/kia/rio-new/sed</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>564000</v>
       </c>
@@ -11263,14 +11261,6 @@
           <t>https://centorauto-nsk.ru/avto-new/kia/novyirio/</t>
         </is>
       </c>
-      <c r="X189" t="n">
-        <v>712000</v>
-      </c>
-      <c r="Y189" t="inlineStr">
-        <is>
-          <t>https://kia-novo.ru/auto/kia/rio-new/sed</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -11377,6 +11367,14 @@
           <t>https://astella-cars.ru/new/kia/rio-x-line</t>
         </is>
       </c>
+      <c r="H191" t="n">
+        <v>889900</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>https://kia-novo.ru/auto/kia/rioxline/x-line</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>557000</v>
       </c>
@@ -11409,14 +11407,6 @@
           <t>https://nsk-drive.ru/cars/kia/rio_x_line/</t>
         </is>
       </c>
-      <c r="X191" t="n">
-        <v>889900</v>
-      </c>
-      <c r="Y191" t="inlineStr">
-        <is>
-          <t>https://kia-novo.ru/auto/kia/rioxline/x-line</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -11450,6 +11440,14 @@
           <t>https://astella-cars.ru/new/kia/seltos</t>
         </is>
       </c>
+      <c r="H192" t="n">
+        <v>1021100</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>https://kia-novo.ru/auto/kia/seltos/seltos</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>790000</v>
       </c>
@@ -11490,14 +11488,6 @@
           <t>https://centorauto-nsk.ru/avto-new/kia/Kia_Seltos/</t>
         </is>
       </c>
-      <c r="X192" t="n">
-        <v>1021100</v>
-      </c>
-      <c r="Y192" t="inlineStr">
-        <is>
-          <t>https://kia-novo.ru/auto/kia/seltos/seltos</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -11572,6 +11562,14 @@
           <t>https://astella-cars.ru/new/kia/sorento</t>
         </is>
       </c>
+      <c r="H194" t="n">
+        <v>1669900</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>https://kia-novo.ru/auto/kia/sorento-new/cuv</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1621000</v>
       </c>
@@ -11612,14 +11610,6 @@
           <t>https://centorauto-nsk.ru/avto-new/kia/sorentonew/</t>
         </is>
       </c>
-      <c r="X194" t="n">
-        <v>1669900</v>
-      </c>
-      <c r="Y194" t="inlineStr">
-        <is>
-          <t>https://kia-novo.ru/auto/kia/sorento-new/cuv</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -11727,6 +11717,14 @@
           <t>https://astella-cars.ru/new/kia/soul</t>
         </is>
       </c>
+      <c r="H197" t="n">
+        <v>1032000</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>https://kia-novo.ru/auto/kia/new-soul/new</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>638000</v>
       </c>
@@ -11767,14 +11765,6 @@
           <t>https://centorauto-nsk.ru/avto-new/kia/soul_new/</t>
         </is>
       </c>
-      <c r="X197" t="n">
-        <v>1032000</v>
-      </c>
-      <c r="Y197" t="inlineStr">
-        <is>
-          <t>https://kia-novo.ru/auto/kia/new-soul/new</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -11808,6 +11798,14 @@
           <t>https://astella-cars.ru/new/kia/sportage</t>
         </is>
       </c>
+      <c r="H198" t="n">
+        <v>977300</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>https://kia-novo.ru/auto/kia/new-sportage/sportagenew</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1143000</v>
       </c>
@@ -11848,14 +11846,6 @@
           <t>https://centorauto-nsk.ru/avto-new/kia/sportage_new_model/</t>
         </is>
       </c>
-      <c r="X198" t="n">
-        <v>977300</v>
-      </c>
-      <c r="Y198" t="inlineStr">
-        <is>
-          <t>https://kia-novo.ru/auto/kia/new-sportage/sportagenew</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -11954,6 +11944,14 @@
           <t>https://astella-cars.ru/new/kia/stinger</t>
         </is>
       </c>
+      <c r="H200" t="n">
+        <v>2156900</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>https://kia-novo.ru/auto/kia/stinger-new/sed</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>2309900</v>
       </c>
@@ -11986,14 +11984,6 @@
           <t>https://nsk-drive.ru/cars/kia/stinger/</t>
         </is>
       </c>
-      <c r="X200" t="n">
-        <v>2156900</v>
-      </c>
-      <c r="Y200" t="inlineStr">
-        <is>
-          <t>https://kia-novo.ru/auto/kia/stinger-new/sed</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -12231,14 +12221,6 @@
           <t>https://astella-cars.ru/new/lada/bronto</t>
         </is>
       </c>
-      <c r="H205" t="n">
-        <v>768401</v>
-      </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
       <c r="J205" t="n">
         <v>782340</v>
       </c>
@@ -12393,14 +12375,6 @@
           <t>https://astella-cars.ru/new/lada/granta-cross</t>
         </is>
       </c>
-      <c r="H207" t="n">
-        <v>671700</v>
-      </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
       <c r="J207" t="n">
         <v>654600</v>
       </c>
@@ -12467,19 +12441,11 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>627391</v>
+        <v>638940</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
-      <c r="H208" t="n">
-        <v>627391</v>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
+          <t>https://centorauto-nsk.ru/avto-new/lada/lada_granta_sport_drive_active_liftback/</t>
         </is>
       </c>
       <c r="J208" t="n">
@@ -12516,19 +12482,11 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>458415</v>
+        <v>467100</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
-      <c r="H209" t="n">
-        <v>458415</v>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
+          <t>https://centorauto-nsk.ru/avto-new/lada/granta_hatchback_new/</t>
         </is>
       </c>
       <c r="V209" t="n">
@@ -12605,14 +12563,6 @@
           <t>https://astella-cars.ru/new/lada/granta-liftbek</t>
         </is>
       </c>
-      <c r="H211" t="n">
-        <v>613880</v>
-      </c>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
       <c r="L211" t="n">
         <v>442100</v>
       </c>
@@ -12704,19 +12654,11 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>412041</v>
+        <v>419940</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
-      <c r="H213" t="n">
-        <v>412041</v>
-      </c>
-      <c r="I213" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
+          <t>https://lada-novosib.ru/#models</t>
         </is>
       </c>
       <c r="J213" t="n">
@@ -12753,19 +12695,11 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>609691</v>
+        <v>620940</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
-      <c r="H214" t="n">
-        <v>609691</v>
-      </c>
-      <c r="I214" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
+          <t>https://centorauto-nsk.ru/avto-new/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="J214" t="n">
@@ -12867,19 +12801,11 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>853420</v>
+        <v>892800</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
-      <c r="H216" t="n">
-        <v>853420</v>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
+          <t>https://lada-novosib.ru/#models</t>
         </is>
       </c>
       <c r="J216" t="n">
@@ -12916,19 +12842,11 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>853420</v>
+        <v>868800</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
-      <c r="H217" t="n">
-        <v>853420</v>
-      </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
+          <t>https://lada-novosib.ru/#models</t>
         </is>
       </c>
       <c r="J217" t="n">
@@ -12965,19 +12883,11 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>766690</v>
+        <v>780600</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
-      <c r="H218" t="n">
-        <v>766690</v>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
+          <t>https://lada-novosib.ru/#models</t>
         </is>
       </c>
       <c r="J218" t="n">
@@ -13014,19 +12924,11 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>790290</v>
+        <v>804600</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
-      <c r="H219" t="n">
-        <v>790290</v>
-      </c>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
+          <t>https://lada-novosib.ru/#models</t>
         </is>
       </c>
       <c r="J219" t="n">
@@ -13078,14 +12980,6 @@
           <t>https://astella-cars.ru/new/lada/granta-universal</t>
         </is>
       </c>
-      <c r="H220" t="n">
-        <v>423487</v>
-      </c>
-      <c r="I220" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
       <c r="L220" t="n">
         <v>459100</v>
       </c>
@@ -13184,14 +13078,6 @@
           <t>https://lada-novosib.ru/#models</t>
         </is>
       </c>
-      <c r="H222" t="n">
-        <v>978500</v>
-      </c>
-      <c r="I222" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
       <c r="J222" t="n">
         <v>597600</v>
       </c>
@@ -13233,14 +13119,6 @@
           <t>https://lada-novosib.ru/#models</t>
         </is>
       </c>
-      <c r="H223" t="n">
-        <v>1190900</v>
-      </c>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
       <c r="J223" t="n">
         <v>866340</v>
       </c>
@@ -13600,19 +13478,11 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>565146</v>
+        <v>575640</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
-      <c r="H229" t="n">
-        <v>565146</v>
-      </c>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
+          <t>https://centorauto-nsk.ru/avto-new/lada/ladaniva/</t>
         </is>
       </c>
       <c r="J229" t="n">
@@ -13664,14 +13534,6 @@
           <t>https://astella-cars.ru/new/lada/niva-legend-3d</t>
         </is>
       </c>
-      <c r="H230" t="n">
-        <v>577890</v>
-      </c>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
       <c r="L230" t="n">
         <v>520100</v>
       </c>
@@ -13745,14 +13607,6 @@
           <t>https://astella-cars.ru/new/lada/niva-legend-5d</t>
         </is>
       </c>
-      <c r="H231" t="n">
-        <v>541251</v>
-      </c>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
       <c r="L231" t="n">
         <v>573100</v>
       </c>
@@ -13811,19 +13665,11 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>631108</v>
+        <v>642720</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
-      <c r="H232" t="n">
-        <v>631108</v>
-      </c>
-      <c r="I232" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
+          <t>https://centorauto-nsk.ru/avto-new/lada/nivaoffroad/</t>
         </is>
       </c>
       <c r="J232" t="n">
@@ -13875,14 +13721,6 @@
           <t>https://astella-cars.ru/new/lada/niva-travel</t>
         </is>
       </c>
-      <c r="H233" t="n">
-        <v>774360</v>
-      </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
       <c r="J233" t="n">
         <v>788400</v>
       </c>
@@ -13949,19 +13787,11 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>508329</v>
+        <v>517860</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
-      <c r="H234" t="n">
-        <v>508329</v>
-      </c>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
+          <t>https://centorauto-nsk.ru/avto-new/lada/urban_3d/</t>
         </is>
       </c>
       <c r="J234" t="n">
@@ -13998,19 +13828,11 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>541310</v>
+        <v>551400</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
-      <c r="H235" t="n">
-        <v>541310</v>
-      </c>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
+          <t>https://centorauto-nsk.ru/avto-new/lada/urban_5d/</t>
         </is>
       </c>
       <c r="J235" t="n">
@@ -14062,14 +13884,6 @@
           <t>https://astella-cars.ru/new/lada/vesta-cross</t>
         </is>
       </c>
-      <c r="H236" t="n">
-        <v>1036910</v>
-      </c>
-      <c r="I236" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
       <c r="J236" t="n">
         <v>1047540</v>
       </c>
@@ -14216,14 +14030,6 @@
           <t>https://astella-cars.ru/new/lada/vesta-sw</t>
         </is>
       </c>
-      <c r="H238" t="n">
-        <v>975550</v>
-      </c>
-      <c r="I238" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
       <c r="J238" t="n">
         <v>993000</v>
       </c>
@@ -14305,14 +14111,6 @@
           <t>https://astella-cars.ru/new/lada/vesta-sw-cross</t>
         </is>
       </c>
-      <c r="H239" t="n">
-        <v>1107710</v>
-      </c>
-      <c r="I239" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
       <c r="J239" t="n">
         <v>1127400</v>
       </c>
@@ -14509,19 +14307,11 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1386131</v>
+        <v>1410540</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
-      <c r="H242" t="n">
-        <v>1386131</v>
-      </c>
-      <c r="I242" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
+          <t>https://lada-novosib.ru/#models</t>
         </is>
       </c>
       <c r="J242" t="n">
@@ -14573,14 +14363,6 @@
           <t>https://astella-cars.ru/new/lada/vesta</t>
         </is>
       </c>
-      <c r="H243" t="n">
-        <v>730641</v>
-      </c>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
       <c r="J243" t="n">
         <v>743940</v>
       </c>
@@ -14662,14 +14444,6 @@
           <t>https://astella-cars.ru/new/lada/vesta-cng</t>
         </is>
       </c>
-      <c r="H244" t="n">
-        <v>776071</v>
-      </c>
-      <c r="I244" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
       <c r="J244" t="n">
         <v>790140</v>
       </c>
@@ -14866,19 +14640,11 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1282881</v>
+        <v>1305540</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
-      <c r="H247" t="n">
-        <v>1282881</v>
-      </c>
-      <c r="I247" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
+          <t>https://lada-novosib.ru/#models</t>
         </is>
       </c>
       <c r="J247" t="n">
@@ -14930,14 +14696,6 @@
           <t>https://astella-cars.ru/new/lada/xray</t>
         </is>
       </c>
-      <c r="H248" t="n">
-        <v>652171</v>
-      </c>
-      <c r="I248" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
       <c r="J248" t="n">
         <v>664140</v>
       </c>
@@ -15019,14 +14777,6 @@
           <t>https://astella-cars.ru/new/lada/xray-cross</t>
         </is>
       </c>
-      <c r="H249" t="n">
-        <v>736541</v>
-      </c>
-      <c r="I249" t="inlineStr">
-        <is>
-          <t>https://carproms-nsk.ru/catalog</t>
-        </is>
-      </c>
       <c r="J249" t="n">
         <v>749940</v>
       </c>
@@ -19894,7 +19644,7 @@
         </is>
       </c>
       <c r="T339" t="n">
-        <v>4880000</v>
+        <v>4780000</v>
       </c>
       <c r="U339" t="inlineStr">
         <is>

--- a/xlsx/nsk.xlsx
+++ b/xlsx/nsk.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W359"/>
+  <dimension ref="A1:W358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1604900</v>
+        <v>1484900</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1604900</v>
+        <v>1484900</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1589,14 +1589,6 @@
           <t>https://nsk-drive.ru/cars/changan/cs55plus/</t>
         </is>
       </c>
-      <c r="T21" t="n">
-        <v>2281793</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>https://nsk.avtomir.ru/new-cars/changan/cs55plus/</t>
-        </is>
-      </c>
       <c r="V21" t="n">
         <v>1637940</v>
       </c>
@@ -2183,7 +2175,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3059900</v>
+        <v>3008498</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -7141,11 +7133,11 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1709400</v>
+        <v>1699000</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/haval/haval_f7_%D0%BD%D0%BE%D0%B2%D1%8B%D0%B9/</t>
+          <t>https://sib-autosalon.ru/cars/haval/new_f7/</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -7157,11 +7149,11 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1979000</v>
+        <v>1699000</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>https://sib-autosalon.ru/cars/haval/f7_ii/</t>
+          <t>https://sib-autosalon.ru/cars/haval/new_f7/</t>
         </is>
       </c>
       <c r="N116" t="n">
@@ -17063,7 +17055,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>2629180</v>
+        <v>2653150</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -17071,7 +17063,7 @@
         </is>
       </c>
       <c r="T294" t="n">
-        <v>2629180</v>
+        <v>2653150</v>
       </c>
       <c r="U294" t="inlineStr">
         <is>
@@ -19024,7 +19016,7 @@
         </is>
       </c>
       <c r="T327" t="n">
-        <v>4064400</v>
+        <v>4180720</v>
       </c>
       <c r="U327" t="inlineStr">
         <is>
@@ -19325,7 +19317,7 @@
         </is>
       </c>
       <c r="T332" t="n">
-        <v>4050000</v>
+        <v>3784000</v>
       </c>
       <c r="U332" t="inlineStr">
         <is>
@@ -19358,11 +19350,11 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>3213000</v>
+        <v>2574000</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>https://nsk-drive.ru/cars/toyota/new_camry/</t>
+          <t>https://centorauto-nsk.ru/avto-new/toyota/Camry%20XV80/</t>
         </is>
       </c>
       <c r="R333" t="n">
@@ -19373,6 +19365,14 @@
           <t>https://nsk-drive.ru/cars/toyota/new_camry/</t>
         </is>
       </c>
+      <c r="V333" t="n">
+        <v>2574000</v>
+      </c>
+      <c r="W333" t="inlineStr">
+        <is>
+          <t>https://centorauto-nsk.ru/avto-new/toyota/Camry%20XV80/</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -19464,7 +19464,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>6000000</v>
+        <v>5850000</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         </is>
       </c>
       <c r="T335" t="n">
-        <v>6000000</v>
+        <v>5850000</v>
       </c>
       <c r="U335" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>6150000</v>
+        <v>6050000</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         </is>
       </c>
       <c r="T336" t="n">
-        <v>6150000</v>
+        <v>6050000</v>
       </c>
       <c r="U336" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -19526,30 +19526,30 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Land Cruiser 300</t>
+          <t>Land Cruiser Prado</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>14450000</v>
+        <v>15347000</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>https://nsk.avtomir.ru/new-cars/toyota/lc-300/</t>
+          <t>https://nsk.avtomir.ru/new-cars/toyota/lc-250/</t>
         </is>
       </c>
       <c r="T337" t="n">
-        <v>14450000</v>
+        <v>15347000</v>
       </c>
       <c r="U337" t="inlineStr">
         <is>
-          <t>https://nsk.avtomir.ru/new-cars/toyota/lc-300/</t>
+          <t>https://nsk.avtomir.ru/new-cars/toyota/lc-250/</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -19559,111 +19559,111 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Land Cruiser Prado</t>
+          <t>RAV4</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>15338000</v>
+        <v>1490000</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>https://nsk.avtomir.ru/new-cars/toyota/lc-250/</t>
+          <t>https://sib-autosalon.ru/cars/toyota/rav4/</t>
+        </is>
+      </c>
+      <c r="F338" t="n">
+        <v>1917000</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>https://astella-cars.ru/new/toyota/rav4</t>
+        </is>
+      </c>
+      <c r="L338" t="n">
+        <v>1490000</v>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>https://sib-autosalon.ru/cars/toyota/rav4/</t>
+        </is>
+      </c>
+      <c r="N338" t="n">
+        <v>1917000</v>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>https://ac-azimut.ru/new/toyota/rav4</t>
+        </is>
+      </c>
+      <c r="P338" t="n">
+        <v>1917000</v>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>https://nsk-drive.ru/new/toyota/rav4</t>
+        </is>
+      </c>
+      <c r="R338" t="n">
+        <v>1684000</v>
+      </c>
+      <c r="S338" t="inlineStr">
+        <is>
+          <t>https://nsk-drive.ru/cars/toyota/rav4/</t>
         </is>
       </c>
       <c r="T338" t="n">
-        <v>15338000</v>
+        <v>4780000</v>
       </c>
       <c r="U338" t="inlineStr">
         <is>
-          <t>https://nsk.avtomir.ru/new-cars/toyota/lc-250/</t>
+          <t>https://nsk.avtomir.ru/new-cars/toyota/rav4/</t>
+        </is>
+      </c>
+      <c r="V338" t="n">
+        <v>1602600</v>
+      </c>
+      <c r="W338" t="inlineStr">
+        <is>
+          <t>https://centorauto-nsk.ru/avto-new/toyota/rav_4/</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>RAV4</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>1490000</v>
+        <v>837000</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>https://sib-autosalon.ru/cars/toyota/rav4/</t>
-        </is>
-      </c>
-      <c r="F339" t="n">
-        <v>1917000</v>
-      </c>
-      <c r="G339" t="inlineStr">
-        <is>
-          <t>https://astella-cars.ru/new/toyota/rav4</t>
-        </is>
-      </c>
-      <c r="L339" t="n">
-        <v>1490000</v>
-      </c>
-      <c r="M339" t="inlineStr">
-        <is>
-          <t>https://sib-autosalon.ru/cars/toyota/rav4/</t>
-        </is>
-      </c>
-      <c r="N339" t="n">
-        <v>1917000</v>
-      </c>
-      <c r="O339" t="inlineStr">
-        <is>
-          <t>https://ac-azimut.ru/new/toyota/rav4</t>
-        </is>
-      </c>
-      <c r="P339" t="n">
-        <v>1917000</v>
-      </c>
-      <c r="Q339" t="inlineStr">
-        <is>
-          <t>https://nsk-drive.ru/new/toyota/rav4</t>
-        </is>
-      </c>
-      <c r="R339" t="n">
-        <v>1684000</v>
-      </c>
-      <c r="S339" t="inlineStr">
-        <is>
-          <t>https://nsk-drive.ru/cars/toyota/rav4/</t>
-        </is>
-      </c>
-      <c r="T339" t="n">
-        <v>4780000</v>
-      </c>
-      <c r="U339" t="inlineStr">
-        <is>
-          <t>https://nsk.avtomir.ru/new-cars/toyota/rav4/</t>
+          <t>https://centorauto-nsk.ru/avto-new/uaz/hunter/</t>
         </is>
       </c>
       <c r="V339" t="n">
-        <v>1602600</v>
+        <v>837000</v>
       </c>
       <c r="W339" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/toyota/rav_4/</t>
+          <t>https://centorauto-nsk.ru/avto-new/uaz/hunter/</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -19673,30 +19673,30 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>837000</v>
+        <v>927000</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/uaz/hunter/</t>
+          <t>https://centorauto-nsk.ru/avto-new/uaz/patriot_new/</t>
         </is>
       </c>
       <c r="V340" t="n">
-        <v>837000</v>
+        <v>927000</v>
       </c>
       <c r="W340" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/uaz/hunter/</t>
+          <t>https://centorauto-nsk.ru/avto-new/uaz/patriot_new/</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -19706,30 +19706,62 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>927000</v>
+        <v>619400</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/uaz/patriot_new/</t>
-        </is>
-      </c>
-      <c r="V341" t="n">
-        <v>927000</v>
-      </c>
-      <c r="W341" t="inlineStr">
-        <is>
-          <t>https://centorauto-nsk.ru/avto-new/uaz/patriot_new/</t>
+          <t>https://nsk-drive.ru/cars/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="F341" t="n">
+        <v>619400</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>https://astella-cars.ru/new/uaz/patriot-new</t>
+        </is>
+      </c>
+      <c r="L341" t="n">
+        <v>844000</v>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>https://sib-autosalon.ru/cars/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="N341" t="n">
+        <v>619400</v>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>https://ac-azimut.ru/new/uaz/patriot-new</t>
+        </is>
+      </c>
+      <c r="P341" t="n">
+        <v>619400</v>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>https://nsk-drive.ru/new/uaz/patriot-new</t>
+        </is>
+      </c>
+      <c r="R341" t="n">
+        <v>619400</v>
+      </c>
+      <c r="S341" t="inlineStr">
+        <is>
+          <t>https://nsk-drive.ru/cars/uaz/patriot/</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -19739,62 +19771,30 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>Patriot АКПП</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>619400</v>
+        <v>1161000</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>https://nsk-drive.ru/cars/uaz/patriot/</t>
-        </is>
-      </c>
-      <c r="F342" t="n">
-        <v>619400</v>
-      </c>
-      <c r="G342" t="inlineStr">
-        <is>
-          <t>https://astella-cars.ru/new/uaz/patriot-new</t>
-        </is>
-      </c>
-      <c r="L342" t="n">
-        <v>844000</v>
-      </c>
-      <c r="M342" t="inlineStr">
-        <is>
-          <t>https://sib-autosalon.ru/cars/uaz/patriot/</t>
-        </is>
-      </c>
-      <c r="N342" t="n">
-        <v>619400</v>
-      </c>
-      <c r="O342" t="inlineStr">
-        <is>
-          <t>https://ac-azimut.ru/new/uaz/patriot-new</t>
-        </is>
-      </c>
-      <c r="P342" t="n">
-        <v>619400</v>
-      </c>
-      <c r="Q342" t="inlineStr">
-        <is>
-          <t>https://nsk-drive.ru/new/uaz/patriot-new</t>
-        </is>
-      </c>
-      <c r="R342" t="n">
-        <v>619400</v>
-      </c>
-      <c r="S342" t="inlineStr">
-        <is>
-          <t>https://nsk-drive.ru/cars/uaz/patriot/</t>
+          <t>https://centorauto-nsk.ru/avto-new/uaz/patrion_at/</t>
+        </is>
+      </c>
+      <c r="V342" t="n">
+        <v>1161000</v>
+      </c>
+      <c r="W342" t="inlineStr">
+        <is>
+          <t>https://centorauto-nsk.ru/avto-new/uaz/patrion_at/</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -19804,30 +19804,54 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Patriot АКПП</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>1161000</v>
+        <v>666900</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/uaz/patrion_at/</t>
+          <t>https://nsk-drive.ru/new/uaz/novyi-pikap</t>
+        </is>
+      </c>
+      <c r="F343" t="n">
+        <v>666900</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>https://astella-cars.ru/new/uaz/novyi-pikap</t>
+        </is>
+      </c>
+      <c r="N343" t="n">
+        <v>666900</v>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>https://ac-azimut.ru/new/uaz/novyi-pikap</t>
+        </is>
+      </c>
+      <c r="P343" t="n">
+        <v>666900</v>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>https://nsk-drive.ru/new/uaz/novyi-pikap</t>
         </is>
       </c>
       <c r="V343" t="n">
-        <v>1161000</v>
+        <v>942000</v>
       </c>
       <c r="W343" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/uaz/patrion_at/</t>
+          <t>https://centorauto-nsk.ru/avto-new/uaz/pickup_new/</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -19837,7 +19861,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Pickup New</t>
         </is>
       </c>
       <c r="D344" t="n">
@@ -19845,46 +19869,30 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://nsk-drive.ru/new/uaz/novyi-pikap</t>
-        </is>
-      </c>
-      <c r="F344" t="n">
+          <t>https://nsk-drive.ru/cars/uaz/pikap/</t>
+        </is>
+      </c>
+      <c r="L344" t="n">
+        <v>809500</v>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>https://sib-autosalon.ru/cars/uaz/pikap/</t>
+        </is>
+      </c>
+      <c r="R344" t="n">
         <v>666900</v>
       </c>
-      <c r="G344" t="inlineStr">
-        <is>
-          <t>https://astella-cars.ru/new/uaz/novyi-pikap</t>
-        </is>
-      </c>
-      <c r="N344" t="n">
-        <v>666900</v>
-      </c>
-      <c r="O344" t="inlineStr">
-        <is>
-          <t>https://ac-azimut.ru/new/uaz/novyi-pikap</t>
-        </is>
-      </c>
-      <c r="P344" t="n">
-        <v>666900</v>
-      </c>
-      <c r="Q344" t="inlineStr">
-        <is>
-          <t>https://nsk-drive.ru/new/uaz/novyi-pikap</t>
-        </is>
-      </c>
-      <c r="V344" t="n">
-        <v>942000</v>
-      </c>
-      <c r="W344" t="inlineStr">
-        <is>
-          <t>https://centorauto-nsk.ru/avto-new/uaz/pickup_new/</t>
+      <c r="S344" t="inlineStr">
+        <is>
+          <t>https://nsk-drive.ru/cars/uaz/pikap/</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>828</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -19894,104 +19902,96 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Pickup New</t>
+          <t>Pickup АКПП</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>666900</v>
+        <v>1215000</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>https://nsk-drive.ru/cars/uaz/pikap/</t>
-        </is>
-      </c>
-      <c r="L345" t="n">
-        <v>809500</v>
-      </c>
-      <c r="M345" t="inlineStr">
-        <is>
-          <t>https://sib-autosalon.ru/cars/uaz/pikap/</t>
-        </is>
-      </c>
-      <c r="R345" t="n">
-        <v>666900</v>
-      </c>
-      <c r="S345" t="inlineStr">
-        <is>
-          <t>https://nsk-drive.ru/cars/uaz/pikap/</t>
+          <t>https://centorauto-nsk.ru/avto-new/uaz/UAZ_Pickup_akpp/</t>
+        </is>
+      </c>
+      <c r="V345" t="n">
+        <v>1215000</v>
+      </c>
+      <c r="W345" t="inlineStr">
+        <is>
+          <t>https://centorauto-nsk.ru/avto-new/uaz/UAZ_Pickup_akpp/</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>VOYAH</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Pickup АКПП</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>1215000</v>
+        <v>2994000</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/uaz/UAZ_Pickup_akpp/</t>
+          <t>https://centorauto-nsk.ru/avto-new/Voyah/free/</t>
         </is>
       </c>
       <c r="V346" t="n">
-        <v>1215000</v>
+        <v>2994000</v>
       </c>
       <c r="W346" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/uaz/UAZ_Pickup_akpp/</t>
+          <t>https://centorauto-nsk.ru/avto-new/Voyah/free/</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>706</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>VOYAH</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Golf</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>2994000</v>
+        <v>2574600</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/Voyah/free/</t>
+          <t>https://centorauto-nsk.ru/avto-new/volkswagen/golf_new/</t>
         </is>
       </c>
       <c r="V347" t="n">
-        <v>2994000</v>
+        <v>2574600</v>
       </c>
       <c r="W347" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/Voyah/free/</t>
+          <t>https://centorauto-nsk.ru/avto-new/volkswagen/golf_new/</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -20001,30 +20001,70 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Golf</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>2574600</v>
+        <v>1070300</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/volkswagen/golf_new/</t>
+          <t>https://nsk-drive.ru/cars/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="F348" t="n">
+        <v>1070300</v>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>https://astella-cars.ru/new/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="L348" t="n">
+        <v>1285000</v>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>https://sib-autosalon.ru/cars/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="N348" t="n">
+        <v>1070300</v>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>https://ac-azimut.ru/new/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="P348" t="n">
+        <v>1070300</v>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>https://nsk-drive.ru/new/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="R348" t="n">
+        <v>1070300</v>
+      </c>
+      <c r="S348" t="inlineStr">
+        <is>
+          <t>https://nsk-drive.ru/cars/volkswagen/jetta/</t>
         </is>
       </c>
       <c r="V348" t="n">
-        <v>2574600</v>
+        <v>1269060</v>
       </c>
       <c r="W348" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/volkswagen/golf_new/</t>
+          <t>https://centorauto-nsk.ru/avto-new/volkswagen/jetta-new/</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -20034,70 +20074,46 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Passat</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>1070300</v>
+        <v>2131740</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>https://nsk-drive.ru/cars/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="F349" t="n">
-        <v>1070300</v>
-      </c>
-      <c r="G349" t="inlineStr">
-        <is>
-          <t>https://astella-cars.ru/new/volkswagen/jetta</t>
+          <t>https://centorauto-nsk.ru/avto-new/volkswagen/passat-new/</t>
         </is>
       </c>
       <c r="L349" t="n">
-        <v>1285000</v>
+        <v>2438000</v>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>https://sib-autosalon.ru/cars/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="N349" t="n">
-        <v>1070300</v>
-      </c>
-      <c r="O349" t="inlineStr">
-        <is>
-          <t>https://ac-azimut.ru/new/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="P349" t="n">
-        <v>1070300</v>
-      </c>
-      <c r="Q349" t="inlineStr">
-        <is>
-          <t>https://nsk-drive.ru/new/volkswagen/jetta</t>
+          <t>https://sib-autosalon.ru/cars/volkswagen/passat/</t>
         </is>
       </c>
       <c r="R349" t="n">
-        <v>1070300</v>
+        <v>2211300</v>
       </c>
       <c r="S349" t="inlineStr">
         <is>
-          <t>https://nsk-drive.ru/cars/volkswagen/jetta/</t>
+          <t>https://nsk-drive.ru/cars/volkswagen/passat/</t>
         </is>
       </c>
       <c r="V349" t="n">
-        <v>1269060</v>
+        <v>2131740</v>
       </c>
       <c r="W349" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/volkswagen/jetta-new/</t>
+          <t>https://centorauto-nsk.ru/avto-new/volkswagen/passat-new/</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>650</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -20107,46 +20123,46 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Passat</t>
+          <t>Passat New</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>2131740</v>
+        <v>2211300</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/volkswagen/passat-new/</t>
-        </is>
-      </c>
-      <c r="L350" t="n">
-        <v>2438000</v>
-      </c>
-      <c r="M350" t="inlineStr">
-        <is>
-          <t>https://sib-autosalon.ru/cars/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="R350" t="n">
+          <t>https://nsk-drive.ru/new/volkswagen/passat</t>
+        </is>
+      </c>
+      <c r="F350" t="n">
         <v>2211300</v>
       </c>
-      <c r="S350" t="inlineStr">
-        <is>
-          <t>https://nsk-drive.ru/cars/volkswagen/passat/</t>
-        </is>
-      </c>
-      <c r="V350" t="n">
-        <v>2131740</v>
-      </c>
-      <c r="W350" t="inlineStr">
-        <is>
-          <t>https://centorauto-nsk.ru/avto-new/volkswagen/passat-new/</t>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>https://astella-cars.ru/new/volkswagen/passat</t>
+        </is>
+      </c>
+      <c r="N350" t="n">
+        <v>2211300</v>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>https://ac-azimut.ru/new/volkswagen/passat</t>
+        </is>
+      </c>
+      <c r="P350" t="n">
+        <v>2211300</v>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>https://nsk-drive.ru/new/volkswagen/passat</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>961</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -20156,46 +20172,30 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Passat New</t>
+          <t>Passat Variant</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>2211300</v>
+        <v>1457820</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>https://nsk-drive.ru/new/volkswagen/passat</t>
-        </is>
-      </c>
-      <c r="F351" t="n">
-        <v>2211300</v>
-      </c>
-      <c r="G351" t="inlineStr">
-        <is>
-          <t>https://astella-cars.ru/new/volkswagen/passat</t>
-        </is>
-      </c>
-      <c r="N351" t="n">
-        <v>2211300</v>
-      </c>
-      <c r="O351" t="inlineStr">
-        <is>
-          <t>https://ac-azimut.ru/new/volkswagen/passat</t>
-        </is>
-      </c>
-      <c r="P351" t="n">
-        <v>2211300</v>
-      </c>
-      <c r="Q351" t="inlineStr">
-        <is>
-          <t>https://nsk-drive.ru/new/volkswagen/passat</t>
+          <t>https://centorauto-nsk.ru/avto-new/volkswagen/passat_variant/</t>
+        </is>
+      </c>
+      <c r="V351" t="n">
+        <v>1457820</v>
+      </c>
+      <c r="W351" t="inlineStr">
+        <is>
+          <t>https://centorauto-nsk.ru/avto-new/volkswagen/passat_variant/</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -20205,30 +20205,70 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Passat Variant</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>1457820</v>
+        <v>540300</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/volkswagen/passat_variant/</t>
+          <t>https://nsk-drive.ru/cars/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="F352" t="n">
+        <v>540300</v>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>https://astella-cars.ru/new/volkswagen/polo</t>
+        </is>
+      </c>
+      <c r="L352" t="n">
+        <v>990000</v>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>https://sib-autosalon.ru/cars/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="N352" t="n">
+        <v>540300</v>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>https://ac-azimut.ru/new/volkswagen/polo</t>
+        </is>
+      </c>
+      <c r="P352" t="n">
+        <v>540300</v>
+      </c>
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>https://nsk-drive.ru/new/volkswagen/polo</t>
+        </is>
+      </c>
+      <c r="R352" t="n">
+        <v>540300</v>
+      </c>
+      <c r="S352" t="inlineStr">
+        <is>
+          <t>https://nsk-drive.ru/cars/volkswagen/polo/</t>
         </is>
       </c>
       <c r="V352" t="n">
-        <v>1457820</v>
+        <v>972540</v>
       </c>
       <c r="W352" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/volkswagen/passat_variant/</t>
+          <t>https://centorauto-nsk.ru/avto-new/volkswagen/vw_polo_new/</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -20238,70 +20278,30 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>540300</v>
+        <v>1697340</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://nsk-drive.ru/cars/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="F353" t="n">
-        <v>540300</v>
-      </c>
-      <c r="G353" t="inlineStr">
-        <is>
-          <t>https://astella-cars.ru/new/volkswagen/polo</t>
-        </is>
-      </c>
-      <c r="L353" t="n">
-        <v>990000</v>
-      </c>
-      <c r="M353" t="inlineStr">
-        <is>
-          <t>https://sib-autosalon.ru/cars/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="N353" t="n">
-        <v>540300</v>
-      </c>
-      <c r="O353" t="inlineStr">
-        <is>
-          <t>https://ac-azimut.ru/new/volkswagen/polo</t>
-        </is>
-      </c>
-      <c r="P353" t="n">
-        <v>540300</v>
-      </c>
-      <c r="Q353" t="inlineStr">
-        <is>
-          <t>https://nsk-drive.ru/new/volkswagen/polo</t>
-        </is>
-      </c>
-      <c r="R353" t="n">
-        <v>540300</v>
-      </c>
-      <c r="S353" t="inlineStr">
-        <is>
-          <t>https://nsk-drive.ru/cars/volkswagen/polo/</t>
+          <t>https://centorauto-nsk.ru/avto-new/volkswagen/taos/</t>
         </is>
       </c>
       <c r="V353" t="n">
-        <v>972540</v>
+        <v>1697340</v>
       </c>
       <c r="W353" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/volkswagen/vw_polo_new/</t>
+          <t>https://centorauto-nsk.ru/avto-new/volkswagen/taos/</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>655</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -20311,30 +20311,70 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Teramont</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>1697340</v>
+        <v>2477000</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/volkswagen/taos/</t>
+          <t>https://nsk-drive.ru/cars/volkswagen/teramont/</t>
+        </is>
+      </c>
+      <c r="F354" t="n">
+        <v>2477000</v>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>https://astella-cars.ru/new/volkswagen/teramont</t>
+        </is>
+      </c>
+      <c r="L354" t="n">
+        <v>2477000</v>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>https://sib-autosalon.ru/cars/volkswagen/teramont/</t>
+        </is>
+      </c>
+      <c r="N354" t="n">
+        <v>2477000</v>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>https://ac-azimut.ru/new/volkswagen/teramont</t>
+        </is>
+      </c>
+      <c r="P354" t="n">
+        <v>2477000</v>
+      </c>
+      <c r="Q354" t="inlineStr">
+        <is>
+          <t>https://nsk-drive.ru/new/volkswagen/teramont</t>
+        </is>
+      </c>
+      <c r="R354" t="n">
+        <v>2477000</v>
+      </c>
+      <c r="S354" t="inlineStr">
+        <is>
+          <t>https://nsk-drive.ru/cars/volkswagen/teramont/</t>
         </is>
       </c>
       <c r="V354" t="n">
-        <v>1697340</v>
+        <v>3687900</v>
       </c>
       <c r="W354" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/volkswagen/taos/</t>
+          <t>https://centorauto-nsk.ru/avto-new/volkswagen/teramont/</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -20344,70 +20384,70 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Teramont</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>2477000</v>
+        <v>1499900</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>https://nsk-drive.ru/cars/volkswagen/teramont/</t>
+          <t>https://nsk-drive.ru/cars/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>2477000</v>
+        <v>1499900</v>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>https://astella-cars.ru/new/volkswagen/teramont</t>
+          <t>https://astella-cars.ru/new/volkswagen/tiguan</t>
         </is>
       </c>
       <c r="L355" t="n">
-        <v>2477000</v>
+        <v>1934900</v>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>https://sib-autosalon.ru/cars/volkswagen/teramont/</t>
+          <t>https://sib-autosalon.ru/cars/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="N355" t="n">
-        <v>2477000</v>
+        <v>1499900</v>
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>https://ac-azimut.ru/new/volkswagen/teramont</t>
+          <t>https://ac-azimut.ru/new/volkswagen/tiguan</t>
         </is>
       </c>
       <c r="P355" t="n">
-        <v>2477000</v>
+        <v>1499900</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>https://nsk-drive.ru/new/volkswagen/teramont</t>
+          <t>https://nsk-drive.ru/new/volkswagen/tiguan</t>
         </is>
       </c>
       <c r="R355" t="n">
-        <v>2477000</v>
+        <v>1499900</v>
       </c>
       <c r="S355" t="inlineStr">
         <is>
-          <t>https://nsk-drive.ru/cars/volkswagen/teramont/</t>
+          <t>https://nsk-drive.ru/cars/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="V355" t="n">
-        <v>3687900</v>
+        <v>2025540</v>
       </c>
       <c r="W355" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/volkswagen/teramont/</t>
+          <t>https://centorauto-nsk.ru/avto-new/volkswagen/tiguan-new/</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>659</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -20417,103 +20457,63 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Touareg</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>1499900</v>
+        <v>5201700</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>https://nsk-drive.ru/cars/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="F356" t="n">
-        <v>1499900</v>
-      </c>
-      <c r="G356" t="inlineStr">
-        <is>
-          <t>https://astella-cars.ru/new/volkswagen/tiguan</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1934900</v>
-      </c>
-      <c r="M356" t="inlineStr">
-        <is>
-          <t>https://sib-autosalon.ru/cars/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="N356" t="n">
-        <v>1499900</v>
-      </c>
-      <c r="O356" t="inlineStr">
-        <is>
-          <t>https://ac-azimut.ru/new/volkswagen/tiguan</t>
-        </is>
-      </c>
-      <c r="P356" t="n">
-        <v>1499900</v>
-      </c>
-      <c r="Q356" t="inlineStr">
-        <is>
-          <t>https://nsk-drive.ru/new/volkswagen/tiguan</t>
-        </is>
-      </c>
-      <c r="R356" t="n">
-        <v>1499900</v>
-      </c>
-      <c r="S356" t="inlineStr">
-        <is>
-          <t>https://nsk-drive.ru/cars/volkswagen/tiguan/</t>
+          <t>https://centorauto-nsk.ru/avto-new/volkswagen/touareg/</t>
         </is>
       </c>
       <c r="V356" t="n">
-        <v>2025540</v>
+        <v>5201700</v>
       </c>
       <c r="W356" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/volkswagen/tiguan-new/</t>
+          <t>https://centorauto-nsk.ru/avto-new/volkswagen/touareg/</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Touareg</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>5201700</v>
+        <v>1499400</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/volkswagen/touareg/</t>
+          <t>https://centorauto-nsk.ru/avto-new/xcite/X_cross7/</t>
         </is>
       </c>
       <c r="V357" t="n">
-        <v>5201700</v>
+        <v>1499400</v>
       </c>
       <c r="W357" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/volkswagen/touareg/</t>
+          <t>https://centorauto-nsk.ru/avto-new/xcite/X_cross7/</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -20523,54 +20523,21 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>X-Cross 8</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>1499400</v>
+        <v>1799400</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>https://centorauto-nsk.ru/avto-new/xcite/X_cross7/</t>
+          <t>https://centorauto-nsk.ru/avto-new/xcite/X-cross%208/</t>
         </is>
       </c>
       <c r="V358" t="n">
-        <v>1499400</v>
+        <v>1799400</v>
       </c>
       <c r="W358" t="inlineStr">
-        <is>
-          <t>https://centorauto-nsk.ru/avto-new/xcite/X_cross7/</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>787</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>XCite</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>X-Cross 8</t>
-        </is>
-      </c>
-      <c r="D359" t="n">
-        <v>1799400</v>
-      </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>https://centorauto-nsk.ru/avto-new/xcite/X-cross%208/</t>
-        </is>
-      </c>
-      <c r="V359" t="n">
-        <v>1799400</v>
-      </c>
-      <c r="W359" t="inlineStr">
         <is>
           <t>https://centorauto-nsk.ru/avto-new/xcite/X-cross%208/</t>
         </is>
